--- a/data/income_statement/1digit/size/B_IS_SMALL.xlsx
+++ b/data/income_statement/1digit/size/B_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>B-Mining and quarrying</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>B-Mining and quarrying</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,893 +841,1008 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1608184.22879</v>
+        <v>1778475.16256</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2200469.19972</v>
+        <v>2415692.92254</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2104577.31959</v>
+        <v>2352386.5039</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2161504.15262</v>
+        <v>2482653.864209999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3245184.53027</v>
+        <v>3654301.81136</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2964300.459789999</v>
+        <v>3555789.59982</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3591596.28928</v>
+        <v>4302240.665279999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3215664.4428</v>
+        <v>4064437.27501</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>3543935.630330001</v>
+        <v>4330291.311830001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7001451.656060001</v>
+        <v>7596157.17612</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6910693.78735</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7933782.98918</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>8212850.429</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1420220.87421</v>
+        <v>1563131.00487</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1635056.34388</v>
+        <v>1817086.43489</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1902518.53353</v>
+        <v>2119819.7543</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1923926.53452</v>
+        <v>2203208.85361</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2859375.52215</v>
+        <v>3225699.75052</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2632512.71266</v>
+        <v>3165972.65167</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3201502.285830001</v>
+        <v>3803146.22098</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2821020.0107</v>
+        <v>3536923.27823</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3150440.19869</v>
+        <v>3810546.69506</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5909034.017700001</v>
+        <v>6433744.55827</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5882228.70324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6665231.925030001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6673677.641</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>152345.36019</v>
+        <v>178947.56924</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>520983.04039</v>
+        <v>541615.8022499999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>154484.22697</v>
+        <v>171360.01507</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>191983.86532</v>
+        <v>227109.9252</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>308263.46871</v>
+        <v>335589.01684</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>245042.80394</v>
+        <v>284406.37979</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>306407.80325</v>
+        <v>380052.71042</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>300962.43639</v>
+        <v>371594.38654</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>292902.5949799999</v>
+        <v>364009.36173</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>889953.98682</v>
+        <v>920549.5534200001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>774063.00411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>970583.5224</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1227463.028</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>35617.99439</v>
+        <v>36396.58845</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>44429.81545</v>
+        <v>56990.6854</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>47574.55909</v>
+        <v>61206.73453</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>45593.75278</v>
+        <v>52335.0854</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>77545.53941000001</v>
+        <v>93013.04399999998</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>86744.94318999999</v>
+        <v>105410.56836</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>83686.20020000001</v>
+        <v>119041.73388</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>93681.99570999999</v>
+        <v>155919.61024</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>100592.83666</v>
+        <v>155735.25504</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>202463.65154</v>
+        <v>241863.06443</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>254402.08</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>297967.54175</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>311709.76</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>5891.89589</v>
+        <v>7640.74638</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>4722.12155</v>
+        <v>5279.40899</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>8981.01281</v>
+        <v>10015.69334</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>12243.56505</v>
+        <v>15905.72266</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>13892.82176</v>
+        <v>24950.47866</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>10210.07726</v>
+        <v>21368.50218</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>12478.86023</v>
+        <v>24853.77717</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>14785.02899</v>
+        <v>47526.53137</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>20831.84464</v>
+        <v>33480.93005999999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>32138.60239</v>
+        <v>60838.1736</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>76209.29326999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>95680.10958</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>92003.359</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2917.46871</v>
+        <v>4037.46058</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2958.44672</v>
+        <v>2934.54451</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>5252.87898</v>
+        <v>5544.009059999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>10673.04988</v>
+        <v>13925.71819</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>7466.674779999999</v>
+        <v>13449.48394</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>8674.208719999999</v>
+        <v>17713.9706</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>10177.47853</v>
+        <v>19475.31485</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>12482.666</v>
+        <v>41252.27013999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>18805.63809</v>
+        <v>30414.75033000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>21135.8966</v>
+        <v>45964.00765</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>56593.43990999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>70155.84869</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>81015.947</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>948.3705200000001</v>
+        <v>1406.36608</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>335.7813100000001</v>
+        <v>664.3841600000001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>398.69177</v>
+        <v>547.6843100000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>689.64838</v>
+        <v>1035.05255</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2073.863679999999</v>
+        <v>8069.627320000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1044.5704</v>
+        <v>2113.1914</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1512.4246</v>
+        <v>2620.98853</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1061.86537</v>
+        <v>1933.73941</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1321.91463</v>
+        <v>1639.58074</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>7470.49159</v>
+        <v>8169.79991</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>5052.107660000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>8593.301719999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>7787.749</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>2026.05666</v>
+        <v>2196.91972</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1427.89352</v>
+        <v>1680.48032</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>3329.44206</v>
+        <v>3923.99997</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>880.86679</v>
+        <v>944.95192</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>4352.283299999999</v>
+        <v>3431.367400000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>491.29814</v>
+        <v>1541.34018</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>788.9571000000001</v>
+        <v>2757.47379</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1240.49762</v>
+        <v>4340.52182</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>704.2919199999999</v>
+        <v>1426.59899</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>3532.2142</v>
+        <v>6704.366039999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>14563.7457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16930.95917</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3199.663</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1602292.3329</v>
+        <v>1770834.41618</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2195747.07817</v>
+        <v>2410413.51355</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2095596.30678</v>
+        <v>2342370.81056</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2149260.58757</v>
+        <v>2466748.14155</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3231291.708510001</v>
+        <v>3629351.3327</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2954090.382530001</v>
+        <v>3534421.09764</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3579117.42905</v>
+        <v>4277386.88811</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3200879.41381</v>
+        <v>4016910.74364</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>3523103.785689999</v>
+        <v>4296810.381770001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>6969313.05367</v>
+        <v>7535319.002520001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6834484.49408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7838102.879600001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>8120847.07</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1268420.66588</v>
+        <v>1414018.26736</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1775911.91937</v>
+        <v>1950637.27314</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1668112.41803</v>
+        <v>1865366.13098</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1735558.81238</v>
+        <v>1995540.38954</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2578515.06417</v>
+        <v>2890520.17681</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2354887.81874</v>
+        <v>2814973.07869</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2877726.95444</v>
+        <v>3432666.364519999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2537848.11125</v>
+        <v>3163650.69837</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>2821307.853399999</v>
+        <v>3430145.17218</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5562577.26596</v>
+        <v>6001579.139110001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5484210.15344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6324042.90694</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6428711.595</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>694115.8824199999</v>
+        <v>800523.8898300001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1095802.39397</v>
+        <v>1218132.06821</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>975227.7555399999</v>
+        <v>1107773.2332</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>937766.909</v>
+        <v>1140830.98592</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1382473.54383</v>
+        <v>1593489.011</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1244087.15661</v>
+        <v>1561225.14734</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1415031.31275</v>
+        <v>1827672.22416</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1397303.95384</v>
+        <v>1852490.86441</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1451757.99924</v>
+        <v>1912673.95197</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3134808.17912</v>
+        <v>3449608.80543</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3004503.16464</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3386992.65232</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>3647111.009</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>260775.99033</v>
+        <v>278046.52294</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>236819.13893</v>
+        <v>254773.25887</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>280014.93967</v>
+        <v>305670.74262</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>320890.80753</v>
+        <v>330763.99028</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>518887.71427</v>
+        <v>553936.74729</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>439748.57401</v>
+        <v>495231.0200899999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>855769.6903200001</v>
+        <v>895820.3486200001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>546066.60539</v>
+        <v>633569.9225600001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>681115.8744000001</v>
+        <v>730801.4286399999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1277966.91193</v>
+        <v>1301053.73727</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1337876.18235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1459594.68351</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1501937.507</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>307415.7745</v>
+        <v>328326.11429</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>425464.75492</v>
+        <v>451018.98854</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>404067.5775699999</v>
+        <v>439865.65804</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>460426.03824</v>
+        <v>504401.55827</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>663677.7916500001</v>
+        <v>728375.9970600001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>652716.7793799998</v>
+        <v>733652.38988</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>588444.4709900001</v>
+        <v>679957.4569099999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>568412.9900300001</v>
+        <v>645018.3161800001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>665317.8824100001</v>
+        <v>759900.0800900001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1091373.12104</v>
+        <v>1186528.82441</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1089990.27888</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1404354.41745</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1218020.98</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>6113.01863</v>
+        <v>7121.7403</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>17825.63155</v>
+        <v>26712.95752</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>8802.14525</v>
+        <v>12056.49712</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>16475.05761</v>
+        <v>19543.85507</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>13476.01442</v>
+        <v>14718.42146</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>18335.30874</v>
+        <v>24864.52138</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>18481.48038</v>
+        <v>29216.33483</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>26064.56199</v>
+        <v>32571.59522</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>23116.09735</v>
+        <v>26769.71148000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>58429.05387</v>
+        <v>64387.772</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>51840.52757000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>73101.15366</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>61642.099</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>333871.66702</v>
+        <v>356816.14882</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>419835.1588</v>
+        <v>459776.24041</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>427483.8887499999</v>
+        <v>477004.6795800001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>413701.7751900001</v>
+        <v>471207.7520100001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>652776.64434</v>
+        <v>738831.1558899999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>599202.5637899999</v>
+        <v>719448.0189500001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>701390.4746099999</v>
+        <v>844720.52359</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>663031.3025600001</v>
+        <v>853260.04527</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>701795.9322899998</v>
+        <v>866665.20959</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1406735.78771</v>
+        <v>1533739.86341</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1350274.34064</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1514059.97266</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1692135.475</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>277321.52594</v>
+        <v>324503.10208</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>340942.73861</v>
+        <v>390120.8453</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>362649.40194</v>
+        <v>443048.4372</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>364360.69832</v>
+        <v>413181.84399</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>537956.2475500001</v>
+        <v>596836.37948</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>536487.46929</v>
+        <v>643129.7789599999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>637933.80137</v>
+        <v>782364.45076</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>598418.5268299999</v>
+        <v>735080.91601</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>606904.2260899999</v>
+        <v>763512.5141199999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1066909.1745</v>
+        <v>1150826.00983</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1104178.78536</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1218688.69202</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1342155.78</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>14600.97317</v>
+        <v>15190.16057</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>2338.83548</v>
+        <v>11699.51054</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>5456.530450000001</v>
+        <v>32607.19268</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>10060.04694</v>
+        <v>15418.64159</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>17785.3939</v>
+        <v>17603.35985</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>8189.121050000001</v>
+        <v>10280.23893</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>15616.64628</v>
+        <v>41712.49381</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>14101.91019</v>
+        <v>15084.62631</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>8404.974189999999</v>
+        <v>36536.35239</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>21810.94442</v>
+        <v>36234.05054</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>31303.18402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>45407.95683</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>59075.002</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>76406.40049</v>
+        <v>85967.56414</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>121027.46833</v>
+        <v>131469.53638</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>98429.82429999999</v>
+        <v>112249.59568</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>112154.56671</v>
+        <v>120226.5457</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>171941.38963</v>
+        <v>193711.47679</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>162439.40822</v>
+        <v>191079.25951</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>214753.67763</v>
+        <v>254655.13074</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>169023.42271</v>
+        <v>218491.63994</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>195552.7916</v>
+        <v>235120.78305</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>401270.14334</v>
+        <v>423984.3575700001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>378010.50309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>406160.53805</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>446113.298</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>186314.15228</v>
+        <v>223345.37737</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>217576.4348</v>
+        <v>246951.79838</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>258763.04719</v>
+        <v>298191.64884</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>242146.08467</v>
+        <v>277536.6567</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>348229.46402</v>
+        <v>385521.54284</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>365858.94002</v>
+        <v>441770.28052</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>407563.47746</v>
+        <v>485996.82621</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>415293.19393</v>
+        <v>501504.64976</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>402946.4603</v>
+        <v>491855.37868</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>643828.0867400001</v>
+        <v>690607.60172</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>694865.09825</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>767120.1971399999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>836967.48</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>56550.14108000001</v>
+        <v>32313.04673999999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>78892.42019000002</v>
+        <v>69655.39511000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>64834.48681</v>
+        <v>33956.24238</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>49341.07687</v>
+        <v>58025.90802</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>114820.39679</v>
+        <v>141994.77641</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>62715.09450000001</v>
+        <v>76318.23999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>63456.67324</v>
+        <v>62356.07283</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>64612.77572999999</v>
+        <v>118179.12926</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>94891.7062</v>
+        <v>103152.69547</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>339826.61321</v>
+        <v>382913.85358</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>246095.55528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>295371.2806400001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>349979.695</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>24689.90488</v>
+        <v>167494.23383</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>28913.63768</v>
+        <v>415785.823</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>29198.40945</v>
+        <v>135104.34436</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>41067.31528</v>
+        <v>361372.39003</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>62034.61888999999</v>
+        <v>202583.94936</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>402875.98647</v>
+        <v>1417706.54937</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>426999.25014</v>
+        <v>4701982.716809999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>80503.42813999999</v>
+        <v>226847.88718</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>90477.19288</v>
+        <v>243103.32899</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>431885.05755</v>
+        <v>1985353.56558</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>205810.11768</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>523687.85486</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1812701.656</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>483.04657</v>
+        <v>227.63378</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>394.86835</v>
+        <v>543.15194</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1147.39016</v>
+        <v>3077.49892</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>316.26597</v>
+        <v>259.47908</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>3072.28846</v>
+        <v>859.8833100000001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>2855.30661</v>
+        <v>1564.2192</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1985.34816</v>
+        <v>1089.13669</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>4040.7298</v>
+        <v>1581.71468</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>6016.014349999999</v>
+        <v>21103.32659</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>27971.89254</v>
+        <v>4034.63201</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>4427.56574</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>3453.78161</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>152491.804</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>145.21609</v>
+        <v>30876.73775</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>89.70574999999999</v>
+        <v>42.73162</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>300.4682</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>2521.50722</v>
+        <v>313.15557</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>2676.16837</v>
+        <v>1394.09275</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>2209.90889</v>
+        <v>1215.51487</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>1835.00117</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>241.55336</v>
@@ -1835,223 +1851,253 @@
         <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>5587.167570000001</v>
+        <v>916631.53758</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>1677.37236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>88123.14045000001</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>632188.861</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>3888.51479</v>
+        <v>17572.9827</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2349.34585</v>
+        <v>12241.71541</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3342.89306</v>
+        <v>15671.18698</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>4520.96449</v>
+        <v>23258.69711</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>5533.32611</v>
+        <v>43755.12519999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>6040.882410000001</v>
+        <v>18788.67315</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>6778.12153</v>
+        <v>25160.33215</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>8228.457979999999</v>
+        <v>42415.45186</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>6991.82168</v>
+        <v>32851.05721</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>30362.93101</v>
+        <v>92194.69472</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>35953.43432</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>89344.71565</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>79594.53200000001</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>72.73439999999999</v>
+        <v>86.04936000000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>98.67671</v>
+        <v>106.19881</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>189.89037</v>
+        <v>184.93323</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>135.12186</v>
+        <v>151.75428</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>756.2703399999999</v>
+        <v>757.79038</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>423.21888</v>
+        <v>401.08399</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>778.58851</v>
+        <v>779.37171</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1126.12735</v>
+        <v>845.0383499999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>414.62143</v>
+        <v>404.30653</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>3944.89134</v>
+        <v>5622.28581</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1062.70005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>793.26546</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>573.265</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>518.20937</v>
+        <v>2882.10712</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>320.05218</v>
+        <v>594.28419</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>974.24841</v>
+        <v>599.83295</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>549.56435</v>
+        <v>466.44122</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>584.21321</v>
+        <v>27803.93387</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1031.08626</v>
+        <v>4675.46217</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1055.8323</v>
+        <v>12047.51607</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1253.04479</v>
+        <v>1377.41332</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>680.36112</v>
+        <v>2343.88815</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>243.06335</v>
+        <v>1824.51241</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1549.50506</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>8218.09757</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>16853.469</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>135.94165</v>
+        <v>74226.95863000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>706.07689</v>
+        <v>546.8810900000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>813.39364</v>
+        <v>34870.81370999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>229.31518</v>
+        <v>826.18861</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>350.58054</v>
+        <v>501.38884</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>357.3276</v>
+        <v>223.15443</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>714.3378200000001</v>
+        <v>680.2750900000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>507.95655</v>
+        <v>467.97005</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1036.2535</v>
+        <v>746.8648300000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>5576.42288</v>
+        <v>12841.39664</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>574.39473</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>12055.29839</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2630.806</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>11783.26176</v>
+        <v>30213.30591</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>14158.10109</v>
+        <v>55560.105</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>11725.27832</v>
+        <v>39089.77842</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>11977.56449</v>
+        <v>27150.14586</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>31919.59799</v>
+        <v>104484.41616</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>364272.33937</v>
+        <v>1208653.45544</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>388776.62715</v>
+        <v>4599238.744689999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>39125.75015</v>
+        <v>151637.8573</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>32637.91328</v>
+        <v>108338.04355</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>316813.54096</v>
+        <v>906138.5789099999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>115159.61424</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>267210.65471</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>846243.015</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>42.02638</v>
+        <v>18.272</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>27.58898</v>
+        <v>0</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>50.0796</v>
+        <v>52.10151</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>8.33065</v>
@@ -2063,7 +2109,7 @@
         <v>2.87327</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>1.63168</v>
+        <v>0</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>41.54473</v>
@@ -2074,290 +2120,330 @@
       <c r="M33" s="48" t="n">
         <v>191.09673</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>17.759</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>18.46108</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>37.73517</v>
+        <v>131.69676</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>6.55345</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>25.79494</v>
+        <v>25.79899</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>15.57724</v>
+        <v>14.07724</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>0</v>
+        <v>115.88046</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>6.70371</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>27.20672</v>
+        <v>138.04243</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>54.52872</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>444.5541899999999</v>
+        <v>38.70084</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>449.94753</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>153.70786</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>7602.49279</v>
+        <v>11371.7255</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>10731.48671</v>
+        <v>346019.05818</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>10698.29384</v>
+        <v>41303.27849999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>20741.13718</v>
+        <v>308868.6278</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>17118.26598</v>
+        <v>23004.91096</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>25681.0623</v>
+        <v>182064.25151</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>26900.81769</v>
+        <v>61142.76226</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>25950.96976</v>
+        <v>28142.84583</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>42604.13407</v>
+        <v>77219.76868000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>40558.50102</v>
+        <v>45645.13397</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>44764.48692</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>54144.09643</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>82102.515</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>24596.22743</v>
+        <v>44321.72354</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>25268.15694</v>
+        <v>342123.67836</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>25243.74564</v>
+        <v>73383.56634</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>62522.28805999999</v>
+        <v>95999.54317999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>62994.48969</v>
+        <v>116239.10677</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>390903.10343</v>
+        <v>1219187.56799</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>421601.98127</v>
+        <v>5067289.41315</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>78617.00588000001</v>
+        <v>216277.44988</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>83050.17406999999</v>
+        <v>208303.70798</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>604111.39576</v>
+        <v>993728.47687</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>285027.08502</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>443014.87151</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>657710.574</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2983.50435</v>
+        <v>628.2545699999999</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>602.82724</v>
+        <v>602.4519300000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>592.70971</v>
+        <v>659.68022</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>732.2751800000001</v>
+        <v>739.66201</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>514.6560499999999</v>
+        <v>511.75711</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>309.91297</v>
+        <v>445.8887500000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>268.90149</v>
+        <v>362.06138</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>329.33539</v>
+        <v>397.15566</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>11584.33254</v>
+        <v>269.25753</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>493.14643</v>
+        <v>1496.9982</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1623.12916</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1869.53738</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1903.052</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1215.09571</v>
+        <v>6924.533149999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>724.0610700000001</v>
+        <v>696.7861700000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2010.35691</v>
+        <v>1866.52024</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>36954.76429</v>
+        <v>37512.1364</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>4188.12474</v>
+        <v>5262.385060000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>3103.71548</v>
+        <v>2999.25504</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1875.14932</v>
+        <v>2502.26976</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>7043.88725</v>
+        <v>4624.57185</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>4888.377189999999</v>
+        <v>8219.92288</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>14662.90257</v>
+        <v>19922.47722</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>14441.07349</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>69223.19846</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>17322.629</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>117.40059</v>
+        <v>85.35567</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>133.80629</v>
+        <v>402.7404</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>73.14689999999999</v>
+        <v>3130.120440000001</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>517.87135</v>
+        <v>460.07431</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>599.45941</v>
+        <v>3251.16937</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>220.07109</v>
+        <v>91.51478</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>152.92655</v>
+        <v>1628.67163</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>490.25349</v>
+        <v>540.62569</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>203.00888</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>1288.65374</v>
+        <v>7044.73643</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>7.854160000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>2807.79484</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>286.235</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>12694.40902</v>
+        <v>29338.32021</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>14688.9241</v>
+        <v>52634.01055</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>13798.77663</v>
+        <v>45654.4928</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>10360.15722</v>
+        <v>28791.12993</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>45664.61824</v>
+        <v>82836.52511</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>368949.18148</v>
+        <v>1143855.64473</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>402610.36135</v>
+        <v>4493827.395799999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>55234.49315</v>
+        <v>188793.76619</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>42587.26266</v>
+        <v>125096.23803</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>556074.4291699999</v>
+        <v>927917.1850000001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>221764.8906</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>324712.4818</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>554590.034</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>29.61867</v>
+        <v>253.48629</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>11.60784</v>
+        <v>0</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>0.2356</v>
@@ -2366,58 +2452,63 @@
         <v>43.74831</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>3.5586</v>
+        <v>2719.39675</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>30.45951</v>
+        <v>30.19982</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>195.58407</v>
+        <v>5635.35243</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>2.9</v>
+        <v>399.11453</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>499.95201</v>
+        <v>502.95285</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>67.32183999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>19.55642</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>627.633</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>25.94375</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>163.05257</v>
+        <v>305.37905</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>67.53211999999999</v>
+        <v>49.53212000000001</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>2.6284</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>45.31169999999999</v>
+        <v>44.46424</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>5.30382</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>206.06306</v>
+        <v>68.43257000000001</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>15.01207</v>
+        <v>39.57803</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>0</v>
+        <v>166.88849</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>7530.25534</v>
+        <v>7065.829900000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>8943.877829999999</v>
+        <v>287482.3102600001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>8700.98777</v>
+        <v>22022.98492</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>13910.84331</v>
+        <v>28450.16382</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>11978.76095</v>
+        <v>21613.40913</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>18284.45908</v>
+        <v>71759.76104999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>16292.99543</v>
+        <v>563265.2295799999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>15501.12453</v>
+        <v>21482.63793</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>23787.1928</v>
+        <v>74348.39217000002</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>31092.31184</v>
+        <v>36844.12717</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>47122.81576999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>44382.30261</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>82980.99099999999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>32988.07074</v>
+        <v>45750.94723</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>24621.65539</v>
+        <v>38000.10389</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>27447.35898</v>
+        <v>34071.02107</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>35310.86667</v>
+        <v>47768.49235</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>55024.66967</v>
+        <v>72657.13156000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>54387.81686</v>
+        <v>84684.23133999998</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>60113.76778</v>
+        <v>211217.63318</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>59751.87024</v>
+        <v>172270.77794</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>57570.44768</v>
+        <v>159102.9692</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>185421.19763</v>
+        <v>461158.50685</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>217100.86971</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>375818.7739800001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>302406.363</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>30394.4017</v>
+        <v>38206.30128</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>22609.94351</v>
+        <v>28973.79942</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>25718.72337</v>
+        <v>31226.65238</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>32990.45405000001</v>
+        <v>44743.31531</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>49439.22574</v>
+        <v>65108.74017</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>49691.97966</v>
+        <v>78905.03203</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>57608.8014</v>
+        <v>97992.69206999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>56528.78772000001</v>
+        <v>155670.56943</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>55205.83646999999</v>
+        <v>130457.10016</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>179123.64494</v>
+        <v>325461.5484399999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>209206.75912</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>323532.14496</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>291501.672</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>2593.66904</v>
+        <v>7544.64595</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2011.71188</v>
+        <v>9026.304470000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1728.63561</v>
+        <v>2844.368689999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>2320.41262</v>
+        <v>3025.17704</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>5585.443929999999</v>
+        <v>7548.39139</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>4695.837199999999</v>
+        <v>5779.19931</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>2504.96638</v>
+        <v>113224.94111</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>3223.08252</v>
+        <v>16600.20851</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>2364.61121</v>
+        <v>28645.86904</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>6297.55269</v>
+        <v>135696.95841</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>7894.11059</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>52286.62902000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>10904.691</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>23655.74779</v>
+        <v>109734.6098</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>57916.24554</v>
+        <v>105317.43586</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>41341.79164000001</v>
+        <v>61605.99933</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-7424.762579999996</v>
+        <v>275630.26252</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>58835.85632</v>
+        <v>155682.48744</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>20300.16068</v>
+        <v>190152.99003</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>8740.17433</v>
+        <v>-514168.25669</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>6747.327749999996</v>
+        <v>-43521.21137999998</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>44748.27733</v>
+        <v>-21150.65271999998</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-17820.92263000001</v>
+        <v>913380.4354399999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-50222.28176999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>225.4900099999763</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1202564.414</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>21276.88269</v>
+        <v>46608.05222</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>20795.02705</v>
+        <v>22843.52706</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>26292.3241</v>
+        <v>34264.63988</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>60272.10855999999</v>
+        <v>61978.56932</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>30384.86761</v>
+        <v>38985.2438</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>41748.91667</v>
+        <v>73755.64873999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>44098.40315</v>
+        <v>66862.25653000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>46953.74407</v>
+        <v>99387.01486000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>39954.52948</v>
+        <v>63566.29111</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>95322.569</v>
+        <v>115284.89148</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>145007.78863</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>161288.22064</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>231633.357</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>206.9721</v>
+        <v>561.6529800000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>87.96411000000001</v>
+        <v>876.3186000000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1044.10461</v>
+        <v>2481.63611</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>927.11449</v>
+        <v>934.3529100000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>685.58898</v>
+        <v>3600.93061</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>440.0680400000001</v>
+        <v>440.9801</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>526.40945</v>
+        <v>954.1488899999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>325.10844</v>
+        <v>1048.64634</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>294.07075</v>
+        <v>654.21943</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>215.80374</v>
+        <v>208.27257</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1492.33186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1386.20891</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>874.647</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>21069.91059</v>
+        <v>46046.39923999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>20707.06294</v>
+        <v>21967.20846</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>25248.21949</v>
+        <v>31783.00377</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>59344.99406999999</v>
+        <v>61044.21640999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>29699.27863</v>
+        <v>35384.31319</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>41308.84862999999</v>
+        <v>73314.66864000002</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>43571.99370000001</v>
+        <v>65908.10764</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>46628.63563</v>
+        <v>98338.36852</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>39660.45873</v>
+        <v>62912.07168000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>95106.76526</v>
+        <v>115076.61891</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>143515.45677</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>159902.01173</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>230758.71</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>29357.94002</v>
+        <v>40158.37101</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>19896.82904</v>
+        <v>37385.60051</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>104865.33106</v>
+        <v>109842.84221</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>36304.74971</v>
+        <v>41795.319</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>39157.40932999999</v>
+        <v>87381.96929000002</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>83464.69432</v>
+        <v>102203.77945</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>75588.95426</v>
+        <v>94507.16219999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>117011.35593</v>
+        <v>160007.20861</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>64482.32081</v>
+        <v>75994.20008</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>187948.8816</v>
+        <v>205645.16012</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>158850.38474</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>181421.23428</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>196830.655</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>4692.25027</v>
+        <v>9683.779710000001</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>3555.80089</v>
+        <v>8662.36636</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>4028.61349</v>
+        <v>4689.45926</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>5594.59877</v>
+        <v>7156.5484</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>7157.27643</v>
+        <v>11702.11248</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>15100.64855</v>
+        <v>15226.23628</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>14943.93461</v>
+        <v>26777.07711</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>17306.0699</v>
+        <v>25772.48677</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>12933.86263</v>
+        <v>11041.28406</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>24767.71868</v>
+        <v>36950.50294</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>35090.74154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>58546.71312000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>77957.253</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2411.08126</v>
+        <v>4007.399019999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1555.62127</v>
+        <v>6103.34789</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>2120.15246</v>
+        <v>5129.07791</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1945.73498</v>
+        <v>3238.93914</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2471.4918</v>
+        <v>6136.308039999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3025.56644</v>
+        <v>3587.18344</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>8789.93209</v>
+        <v>6667.7773</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>6577.66469</v>
+        <v>5341.63699</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>4518.82891</v>
+        <v>7043.28858</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>11305.26873</v>
+        <v>4051.35459</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>23040.136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>9460.402810000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>5136.693</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>22254.60849</v>
+        <v>26467.19228</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>14785.40688</v>
+        <v>22619.88626</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>98716.56510999998</v>
+        <v>100024.30504</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>28764.41596</v>
+        <v>31399.83146</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>29528.6411</v>
+        <v>69543.54876999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>65338.47932999999</v>
+        <v>83390.35973</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>51855.08756</v>
+        <v>61062.30778999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>93127.62133999998</v>
+        <v>128893.08485</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>47029.62927</v>
+        <v>57909.62743999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>151875.89419</v>
+        <v>164643.30259</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>100719.5072</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>113414.11835</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>113736.709</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>15574.69046</v>
+        <v>116184.29101</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>58814.44355</v>
+        <v>90775.36241</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-37231.21532</v>
+        <v>-13972.20299999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>16542.59626999999</v>
+        <v>295813.51284</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>50063.3146</v>
+        <v>107285.76195</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-21415.61697</v>
+        <v>161704.85932</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-22750.37678</v>
+        <v>-541813.16236</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-63310.28410999999</v>
+        <v>-104141.40513</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>20220.486</v>
+        <v>-33578.56168999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-110447.23523</v>
+        <v>823020.1668</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-64064.87787999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-19907.52362999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1237367.116</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>14978.4801</v>
+        <v>19226.18241</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>20177.54629</v>
+        <v>30713.55718</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>20546.03747</v>
+        <v>26531.34477</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>21352.1621</v>
+        <v>37437.51771</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>28406.62969</v>
+        <v>48219.10719</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>28478.40085</v>
+        <v>55898.42953</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>28149.19969</v>
+        <v>47555.82623999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>26766.93524</v>
+        <v>49257.01527</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>29426.48232</v>
+        <v>42841.72110999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>84777.45204999999</v>
+        <v>140505.65076</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>69380.72248000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>81740.45626000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>163583.128</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>596.2103600000005</v>
+        <v>96958.10859999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>38636.89726</v>
+        <v>60061.80523000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-57777.25279</v>
+        <v>-40503.54777</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-4809.56583</v>
+        <v>258375.99513</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>21656.68491</v>
+        <v>59066.65475999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-49894.01782000001</v>
+        <v>105806.42979</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-50899.57647</v>
+        <v>-589368.9886</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-90077.21935</v>
+        <v>-153398.4204</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-9205.99632</v>
+        <v>-76420.2828</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-195224.68728</v>
+        <v>682514.5160400001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-133445.60036</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-101647.97989</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1073783.988</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1077</v>
+        <v>959</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1180</v>
+        <v>1037</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1263</v>
+        <v>1099</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1351</v>
+        <v>1156</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1627</v>
+        <v>1302</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1669</v>
+        <v>1272</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1676</v>
+        <v>1276</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1716</v>
+        <v>1264</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1815</v>
+        <v>1317</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1577</v>
+        <v>1217</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1166</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>